--- a/excel/CongboTructiep-30071.xlsx
+++ b/excel/CongboTructiep-30071.xlsx
@@ -1,79 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phutc\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27484095-DA0F-442B-83BB-13F57D9CAE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10550"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CongboTructiep-3007" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>YYYY</t>
+  </si>
+  <si>
+    <t>TrT856</t>
+  </si>
+  <si>
+    <t>CAO ĐẲNG CHÍNH QUY</t>
+  </si>
+  <si>
+    <t>QT KINH DOANH</t>
+  </si>
+  <si>
+    <t>TRỰC TIẾP ĐIỂM HỌC BẠ</t>
+  </si>
+  <si>
+    <t>TrT857</t>
+  </si>
+  <si>
+    <t>CHƯA XÁC ĐỊNH ĐƯỢC NGÀNH</t>
+  </si>
+  <si>
     <t>sv_id</t>
   </si>
   <si>
-    <t>Họ tên</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Tháng</t>
-  </si>
-  <si>
-    <t>Năm</t>
-  </si>
-  <si>
-    <t>Hệ đào tạo</t>
-  </si>
-  <si>
-    <t>Ngành</t>
-  </si>
-  <si>
-    <t>Hình thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tình trạng </t>
-  </si>
-  <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>TrT856</t>
+    <t>sv_name</t>
   </si>
   <si>
     <t>NGUYỄN HOÀNG ANH</t>
   </si>
   <si>
-    <t>CAO ĐẲNG CHÍNH QUY</t>
-  </si>
-  <si>
-    <t>QT KINH DOANH</t>
-  </si>
-  <si>
-    <t>TRỰC TIẾP ĐIỂM HỌC BẠ</t>
+    <t>LÊ NGUYÊN HIẾU</t>
+  </si>
+  <si>
+    <t>sv_hedaotao</t>
+  </si>
+  <si>
+    <t>sv_nganh</t>
+  </si>
+  <si>
+    <t>sv_hinhthuc</t>
+  </si>
+  <si>
+    <t>sv_ketqua</t>
   </si>
   <si>
     <t>Trúng Tuyển</t>
   </si>
   <si>
-    <t>TrT857</t>
-  </si>
-  <si>
-    <t>LÊ NGUYÊN HIẾU</t>
-  </si>
-  <si>
-    <t>CHƯA XÁC ĐỊNH ĐƯỢC NGÀNH</t>
+    <t>sv_email</t>
+  </si>
+  <si>
+    <t>sv_tinhtrang</t>
   </si>
   <si>
     <t>TrT858</t>
@@ -262,19 +268,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,37 +312,58 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,44 +371,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,37 +386,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,14 +394,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -423,188 +414,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -614,30 +592,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,17 +613,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +661,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -724,129 +702,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -895,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -928,9 +882,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -963,6 +934,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1104,73 +1092,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.27272727272727" customWidth="1"/>
-    <col min="2" max="2" width="26.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="5.45454545454545" customWidth="1"/>
-    <col min="4" max="4" width="6.27272727272727" customWidth="1"/>
-    <col min="5" max="5" width="5.54545454545455" customWidth="1"/>
-    <col min="6" max="6" width="15.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="29.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="23.6363636363636" customWidth="1"/>
-    <col min="9" max="10" width="12.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="8.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -1182,27 +1168,27 @@
         <v>2003</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>29</v>
@@ -1214,22 +1200,22 @@
         <v>2004</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1246,22 +1232,22 @@
         <v>2004</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1278,22 +1264,22 @@
         <v>2004</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1310,22 +1296,22 @@
         <v>2004</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1342,22 +1328,22 @@
         <v>2004</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1374,22 +1360,22 @@
         <v>2004</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1412,16 +1398,16 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1438,22 +1424,22 @@
         <v>2004</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1470,22 +1456,22 @@
         <v>2004</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1502,22 +1488,22 @@
         <v>2004</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1534,22 +1520,22 @@
         <v>2004</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1566,16 +1552,16 @@
         <v>2004</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1592,22 +1578,22 @@
         <v>2004</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1624,22 +1610,22 @@
         <v>2004</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1662,16 +1648,16 @@
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1688,22 +1674,22 @@
         <v>2004</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1720,22 +1706,22 @@
         <v>2004</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1752,22 +1738,22 @@
         <v>2004</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1784,22 +1770,22 @@
         <v>2004</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1816,22 +1802,22 @@
         <v>2004</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1848,22 +1834,22 @@
         <v>2004</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1880,22 +1866,22 @@
         <v>2004</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1912,22 +1898,22 @@
         <v>2004</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1944,22 +1930,22 @@
         <v>2004</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1976,23 +1962,22 @@
         <v>2004</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>